--- a/DataRepo/data/tests/load_table/test.xlsx
+++ b/DataRepo/data/tests/load_table/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/load_table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{66C84825-363B-4D44-A158-8E72B2AF534B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{73AD93E0-CE24-9C49-8D20-0070D67F6132}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5840" yWindow="3320" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{78E2ADAE-4F72-A244-8BFC-BF07DCFB753C}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Test2</t>
   </si>
@@ -42,6 +42,12 @@
   </si>
   <si>
     <t>Default Value</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>three</t>
   </si>
 </sst>
 </file>
@@ -437,7 +443,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9841986-38C7-B14D-89B8-72FEA7DF3832}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -459,6 +465,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/DataRepo/data/tests/load_table/test.xlsx
+++ b/DataRepo/data/tests/load_table/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/load_table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{73AD93E0-CE24-9C49-8D20-0070D67F6132}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C33B2FEC-6CB5-BF40-8E40-311F22960B8C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5840" yWindow="3320" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{78E2ADAE-4F72-A244-8BFC-BF07DCFB753C}"/>
   </bookViews>
